--- a/Lab2/in-class/Lab02_BBT_Form.xlsx
+++ b/Lab2/in-class/Lab02_BBT_Form.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t xml:space="preserve">Statement: </t>
   </si>
@@ -95,40 +95,28 @@
     <t>Invalid EC</t>
   </si>
   <si>
-    <t>EC1</t>
-  </si>
-  <si>
     <t>Group is a positive integer.</t>
   </si>
   <si>
-    <t>Positive integer.</t>
+    <t>Positive integer</t>
   </si>
   <si>
-    <t>Negative Integer.</t>
+    <t>Negative Integer</t>
   </si>
   <si>
-    <t>EC2</t>
-  </si>
-  <si>
-    <t>Value of zero.</t>
-  </si>
-  <si>
-    <t>EC3</t>
+    <t>Value of zero</t>
   </si>
   <si>
     <t>Group is an integer type.</t>
   </si>
   <si>
-    <t>Type 'Int' value.</t>
+    <t>Type 'Int' value</t>
   </si>
   <si>
-    <t>Type 'String' value.</t>
+    <t>Type 'String' value</t>
   </si>
   <si>
-    <t>EC4</t>
-  </si>
-  <si>
-    <t>Type 'float' value.</t>
+    <t>Type 'float' value</t>
   </si>
   <si>
     <t>No TC</t>
@@ -150,6 +138,9 @@
   </si>
   <si>
     <t>test_id, Test Student, 933, test_email@stud.ubbcluj.ro</t>
+  </si>
+  <si>
+    <t>Negative integer</t>
   </si>
   <si>
     <t>No new student added.</t>
@@ -305,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -329,6 +320,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -383,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border/>
     <border>
       <left style="medium">
@@ -423,6 +419,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -789,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -836,38 +840,42 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -876,44 +884,32 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -921,91 +917,103 @@
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2325,119 +2333,129 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="13" t="s">
+    <row r="6">
+      <c r="B6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="13" t="s">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="12"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
     </row>
     <row r="9">
       <c r="B9" s="12"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10">
       <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11">
       <c r="B11" s="12"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12">
       <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13">
       <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14">
       <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15">
       <c r="B15" s="12"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16">
       <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="17">
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="12"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -3416,15 +3434,17 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3453,146 +3473,146 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="F3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="30">
+        <v>933.0</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F4" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="24" t="s">
+      <c r="D5" s="30">
+        <v>-933.0</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="6">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="34"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="34"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="28">
-        <v>933.0</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="C16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="28">
-        <v>-933.0</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="30" t="s">
+    </row>
+    <row r="17">
+      <c r="C17" s="53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="32"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="32"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="50" t="s">
+    <row r="18">
+      <c r="C18" s="54" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="52" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4577,10 +4597,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4609,109 +4629,109 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="53">
+      <c r="B3" s="55">
         <v>1.0</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="53">
+      <c r="B9" s="55">
         <v>2.0</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="53">
+      <c r="B15" s="55">
         <v>3.0</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5732,37 +5752,37 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="10"/>
-      <c r="C3" s="53" t="s">
-        <v>42</v>
+      <c r="C3" s="55" t="s">
+        <v>39</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>30</v>
+      <c r="D3" s="58" t="s">
+        <v>26</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
-        <v>31</v>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58" t="s">
+        <v>27</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>43</v>
+      <c r="G4" s="60" t="s">
+        <v>40</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="10"/>
-      <c r="C5" s="59"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -5770,15 +5790,15 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="10"/>
-      <c r="C6" s="54"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="10"/>
-      <c r="C7" s="54"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5786,7 +5806,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="10"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -5794,15 +5814,15 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="10"/>
-      <c r="C9" s="54"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="60"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="10"/>
-      <c r="C10" s="55"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -5810,7 +5830,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="10"/>
-      <c r="C11" s="53"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -5818,7 +5838,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -5826,7 +5846,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="10"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -5834,7 +5854,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="10"/>
-      <c r="C14" s="54"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5842,15 +5862,15 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="10"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="60"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="10"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5858,7 +5878,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="10"/>
-      <c r="C17" s="53"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -5866,15 +5886,15 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="61"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="10"/>
-      <c r="C19" s="54"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -5882,7 +5902,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="54"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -5890,15 +5910,15 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="10"/>
-      <c r="C21" s="54"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="61"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="10"/>
-      <c r="C22" s="55"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -5906,10 +5926,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="51"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="51"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -6926,36 +6946,36 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="56" t="s">
-        <v>30</v>
+      <c r="E2" s="58" t="s">
+        <v>26</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="56" t="s">
-        <v>31</v>
+      <c r="F2" s="59"/>
+      <c r="G2" s="58" t="s">
+        <v>27</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" ht="30.75" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>33</v>
+      <c r="H3" s="60" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -8057,89 +8077,89 @@
   <sheetData>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65" t="s">
+      <c r="C4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="D4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="66" t="s">
+      <c r="E4" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="F4" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="G4" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="H4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="I4" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="K4" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="71" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="74"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="77">
+      <c r="C6" s="79">
         <f>SUM(D6:E6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79" t="s">
-        <v>60</v>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
+        <v>57</v>
       </c>
-      <c r="H6" s="77" t="s">
-        <v>61</v>
+      <c r="H6" s="79" t="s">
+        <v>58</v>
       </c>
       <c r="I6" s="12">
         <f>SUM(J6:K6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="78"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
